--- a/test_data/总投注-测试用例.xlsx
+++ b/test_data/总投注-测试用例.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="mixBet" sheetId="2" r:id="rId2"/>
-    <sheet name="mixBetOrder_d" sheetId="3" r:id="rId3"/>
+    <sheet name="mainBet" sheetId="6" r:id="rId2"/>
+    <sheet name="mainBetOrder_d" sheetId="4" r:id="rId3"/>
     <sheet name="mainBetOrder_params" sheetId="5" r:id="rId4"/>
-    <sheet name="mainBetOrder_d" sheetId="4" r:id="rId5"/>
+    <sheet name="mixBet" sheetId="2" r:id="rId5"/>
+    <sheet name="mixBetOrder_d" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>总台-总投注</t>
   </si>
@@ -98,18 +99,1271 @@
     <t>备注</t>
   </si>
   <si>
+    <t>默认查询让球/大小/独赢/滚球</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总投注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>让球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球</t>
+    </r>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"sportId":"sr:sport:1","flag":0,"matchId":""}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f"SELECT sport_category_id'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比赛时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_soccer '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id = 1714 and market_id IN(16,223,188,237,256,16) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场让球盘主队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id = 1715 and market_id IN(16,223,188,237,256,16) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场让球盘客队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id = 12 and market_id IN(18,225,314,238,258,18) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场大小盘大盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id = 13 and market_id IN(18,225,314,238,258,18) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场大小盘小盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id IN (1,4) and market_id IN(1,219,186,251) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场独赢盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1',if(outcome_id =2 and market_id IN(1,219,186,251) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场独赢盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x',if(outcome_id IN (3,5) and market_id IN(1,219,186,251) ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全场独赢盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2',if(outcome_id  =1714 and market_id =66 ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场让球盘主队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id =1715 and market_id =66 ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场让球盘客队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id = 12 and market_id =68 ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场大小盘大盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id = 13 and market_id =68 ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场大小盘小盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(outcome_id IN (1,4) and market_id =60 ,sum(bet_amount*company_percentage),' ')'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场独赢盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1',if(outcome_id =2  and market_id =60 ,sum(bet_amount*company_percentage),' ') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场独赢盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x',if(outcome_id IN(3,5)  and market_id =60 ,sum(bet_amount*company_percentage),' ') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上半场独赢盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2'FROM order_win_handicap_overunder WHERE sport_category_id='{sportName}' GROUP BY sport_category_id ,match_time, match_soccer,match_id,market_id,outcome_id ORDER BY sport_category_id DESC"</t>
+    </r>
+  </si>
+  <si>
+    <t>['account','name','orderNo','bettingTime','sportsType','betType','betAmount','betResult','level0Percentage','companyPercentage']</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>默认查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总投注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>让球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>独赢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球-注单详情</t>
+    </r>
+  </si>
+  <si>
+    <t>/betManagement/agent/mainBetOrderInfo</t>
+  </si>
+  <si>
+    <t>{"matchId":"sr:match:34024947","sportId":"sr:sport:1","marketId":"68","outcomeId":"12"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登入账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.order_no as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',a.create_time as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 2 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 3 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 4 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 5 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羽毛球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 6 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乒乓球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 7 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棒球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' WHEN a.sport_category_id = 100 THEN '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰上曲棍球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' END)as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>球类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.bet_type=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.bet_type=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复式串关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注单类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',tournament_name '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',IF(is_live=3,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>滚球盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',market_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',specifier '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',outcome_name  '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注项名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',cast(credit_odds as char) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',if(odds_type=1,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧洲盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>','</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香港盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>') '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盘口类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',match_time '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赛事时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',(case when a.`status`=1 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未结算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.`status`=2 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已结算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' when a.`status`=3 then '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>' end ) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结算状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',bet_amount as '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage*100,level0_actual_percentage*100,company_retreat_proportion*100 'level0_retreat',level1_actual_percentage*100,level0_retreat_proportion*100 'level1_retreat',level2_actual_percentage*100,level1_retreat_proportion*100 'level2_retreat',level3_actual_percentage*100,level2_retreat_proportion*100 'level3_retreat',level3_retreat_proportion*100 'user_retreat' FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`in(1,2) AND a.award_time is NULL AND a.bet_type=1 AND a.sport_id='{sportId}' AND b.match_id='{matchId}' AND b.market_id='{marketId}' AND b.outcome_id='{outcomeId}' ORDER BY a.create_time DESC"</t>
+    </r>
+  </si>
+  <si>
+    <t>sport_id</t>
+  </si>
+  <si>
+    <t>sport_name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>sr:sport:20</t>
+  </si>
+  <si>
+    <t>乒乓球</t>
+  </si>
+  <si>
+    <t>根据"乒乓球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
     <t>默认所有查询混合串关</t>
   </si>
   <si>
     <t xml:space="preserve"> 总台-总投注-混合串关</t>
   </si>
   <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>{"account":""}</t>
   </si>
   <si>
@@ -554,12 +1808,6 @@
       </rPr>
       <t>' FROM o_account_order a JOIN u_user d ON a.user_id=d.id WHERE a.`status` in (1,2) AND a.award_time is NULL AND bet_type&gt;1 ORDER BY a.create_time,a.order_no DESC</t>
     </r>
-  </si>
-  <si>
-    <t>['account','name','orderNo','bettingTime','sportsType','betType','betAmount','betResult','level0Percentage','companyPercentage']</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>默认所有查询混合串关-注单详情</t>
@@ -1004,814 +2252,6 @@
   <si>
     <t>测试不通过 
 2022-07-04 14:40:24</t>
-  </si>
-  <si>
-    <t>sport_id</t>
-  </si>
-  <si>
-    <t>sport_name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>sr:sport:20</t>
-  </si>
-  <si>
-    <t>乒乓球</t>
-  </si>
-  <si>
-    <t>根据"乒乓球"查询让球/大小/独赢/滚球-注单详情</t>
-  </si>
-  <si>
-    <t>默认查询让球/大小/独赢/滚球-注单详情</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总台</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总投注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>让球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大小</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>独赢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滚球-注单详情</t>
-    </r>
-  </si>
-  <si>
-    <t>/betManagement/agent/mainBetOrderInfo</t>
-  </si>
-  <si>
-    <t>{"matchId":"sr:match:34024947","sportId":"sr:sport:1","marketId":"68","outcomeId":"12"}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登入账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',a.order_no as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',a.create_time as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',(CASE WHEN a.sport_category_id= 1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>足球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 2 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>篮球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 3 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>网球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 4 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>排球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 5 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>羽毛球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 6 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乒乓球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 7 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>棒球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' WHEN a.sport_category_id = 100 THEN '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰上曲棍球</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' END)as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>球类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',(case when a.bet_type=1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' when a.bet_type=2 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>串关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' when a.bet_type=3 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复式串关</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' end ) as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注单类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',tournament_name '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联赛名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',CONCAT( home_team_name, ' Vs ', away_team_name ) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛事名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',IF(is_live=3,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>早盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>滚球盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>') '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛事类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',market_name  '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘口名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',specifier '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亚盘口</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',outcome_name  '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注项名称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',cast(credit_odds as char) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赔率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',if(odds_type=1,'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欧洲盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>','</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>香港盘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>') '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>盘口类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',match_time '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赛事时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',(case when a.`status`=1 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未结算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' when a.`status`=2 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已结算</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' when a.`status`=3 then '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已取消</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>' end ) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结算状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',CONCAT(bet_ip, +' / ',+ ip_address) '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',bet_amount as '</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投注金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>',company_actual_percentage*100,level0_actual_percentage*100,company_retreat_proportion*100 'level0_retreat',level1_actual_percentage*100,level0_retreat_proportion*100 'level1_retreat',level2_actual_percentage*100,level1_retreat_proportion*100 'level2_retreat',level3_actual_percentage*100,level2_retreat_proportion*100 'level3_retreat',level3_retreat_proportion*100 'user_retreat' FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`in(1,2) AND a.award_time is NULL AND a.bet_type=1 AND a.sport_id='{sportId}' AND b.match_id='{matchId}' AND b.market_id='{marketId}' AND b.outcome_id='{outcomeId}' ORDER BY a.create_time DESC"</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -2931,6 +3371,278 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="43.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
@@ -3004,10 +3716,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>28</v>
@@ -3019,10 +3731,10 @@
         <v>29</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>32</v>
@@ -3040,13 +3752,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3118,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>28</v>
@@ -3133,181 +3845,23 @@
         <v>29</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="45.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="96" customHeight="1" spans="1:13">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="9"/>
+        <v>55</v>
+      </c>
       <c r="M2" s="7" t="s">
         <v>33</v>
       </c>

--- a/test_data/总投注-测试用例.xlsx
+++ b/test_data/总投注-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t>总台-总投注</t>
   </si>
@@ -45,6 +45,9 @@
     <t>/betManagement/agent/mixBetOrderInfo</t>
   </si>
   <si>
+    <t>f"SELECT sport_category_id'球类',match_time '比赛时间',match_soccer '赛事',if(outcome_id = 1714 and market_id IN(16,223,188,237,256,16) ,sum(bet_amount*company_percentage),' ')'全场让球盘主队',if(outcome_id = 1715 and market_id IN(16,223,188,237,256,16) ,sum(bet_amount*company_percentage),' ')'全场让球盘客队',if(outcome_id = 12 and market_id IN(18,225,314,238,258,18) ,sum(bet_amount*company_percentage),' ')'全场大小盘大盘',if(outcome_id = 13 and market_id IN(18,225,314,238,258,18) ,sum(bet_amount*company_percentage),' ')'全场大小盘小盘',if(outcome_id IN (1,4) and market_id IN(1,219,186,251) ,sum(bet_amount*company_percentage),' ')'全场独赢盘1',if(outcome_id =2 and market_id IN(1,219,186,251) ,sum(bet_amount*company_percentage),' ')'全场独赢盘x',if(outcome_id IN (3,5) and market_id IN(1,219,186,251) ,sum(bet_amount*company_percentage),' ')'全场独赢盘2',if(outcome_id  =1714 and market_id =66 ,sum(bet_amount*company_percentage),' ')'上半场让球盘主队',if(outcome_id =1715 and market_id =66 ,sum(bet_amount*company_percentage),' ')'上半场让球盘客队',if(outcome_id = 12 and market_id =68 ,sum(bet_amount*company_percentage),' ')'上半场大小盘大盘',if(outcome_id = 13 and market_id =68 ,sum(bet_amount*company_percentage),' ')'上半场大小盘小盘',if(outcome_id IN (1,4) and market_id =60 ,sum(bet_amount*company_percentage),' ')'上半场独赢盘1',if(outcome_id =2  and market_id =60 ,sum(bet_amount*company_percentage),' ') '上半场独赢盘x',if(outcome_id IN(3,5)  and market_id =60 ,sum(bet_amount*company_percentage),' ') '上半场独赢盘2'FROM order_win_handicap_overunder WHERE sport_category_id='{sportName}' GROUP BY sport_category_id ,match_time, match_soccer,match_id,market_id,outcome_id ORDER BY sport_category_id DESC"</t>
+  </si>
+  <si>
     <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '账号/登入账号',a.order_no as '注单号',a.create_time as '投注时间',(CASE WHEN a.sport_category_id= 1 then '足球' WHEN a.sport_category_id = 2 THEN '篮球' WHEN a.sport_category_id = 3 THEN '网球' WHEN a.sport_category_id = 4 THEN '排球' WHEN a.sport_category_id = 5 THEN '羽毛球' WHEN a.sport_category_id = 6 THEN '乒乓球' WHEN a.sport_category_id = 7 THEN '棒球' WHEN a.sport_category_id = 100 THEN '冰上曲棍球' END)as '球类',(case when a.bet_type=1 then '单注' when a.bet_type=2 then '串关' when a.bet_type=3 then '复式串关' end ) as '注单类型',tournament_name '联赛名称',CONCAT( home_team_name, ' Vs ', away_team_name ) '赛事名称',IF(is_live=3,'早盘','滚球盘') '赛事类型',market_name  '盘口名称',specifier '亚盘口',outcome_name  '投注项名称',cast(credit_odds as char) '赔率',if(odds_type=1,'欧洲盘','香港盘') '盘口类型',match_time '赛事时间',(case when a.`status`=1 then '未结算' when a.`status`=2 then '已结算' when a.`status`=3 then '已取消' end ) '结算状态',CONCAT(bet_ip, +' / ',+ ip_address) '下注IP地址',bet_amount as '投注金额',company_actual_percentage,level0_actual_percentage,company_retreat_proportion 'level0_retreat',level1_actual_percentage,level0_retreat_proportion 'level1_retreat',level2_actual_percentage,level1_retreat_proportion 'level2_retreat',level3_actual_percentage,level2_retreat_proportion 'level3_retreat',level3_retreat_proportion 'user_retreat' FROM o_account_order a JOIN o_account_order_match b ON a.order_no = b.order_no JOIN o_account_order_match_update c ON (a.order_no=c.order_no AND b.match_id=c.match_id)JOIN u_user d ON a.user_id=d.id WHERE a.`status`in(1,2) AND a.award_time is NULL AND a.bet_type=1 AND a.sport_id='{sport_id}' AND b.match_id='{match_id}' AND b.market_id='{market_id}' AND b.outcome_id='{outcome_id}' ORDER BY a.create_time DESC"</t>
   </si>
   <si>
@@ -1349,6 +1352,54 @@
     <t>title</t>
   </si>
   <si>
+    <t>isExecution</t>
+  </si>
+  <si>
+    <t>sr:sport:1</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>根据"足球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
+    <t>sr:sport:2</t>
+  </si>
+  <si>
+    <t>篮球</t>
+  </si>
+  <si>
+    <t>根据"篮球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
+    <t>sr:sport:5</t>
+  </si>
+  <si>
+    <t>网球</t>
+  </si>
+  <si>
+    <t>根据"网球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
+    <t>sr:sport:23</t>
+  </si>
+  <si>
+    <t>排球</t>
+  </si>
+  <si>
+    <t>根据"排球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
+    <t>sr:sport:31</t>
+  </si>
+  <si>
+    <t>羽毛球</t>
+  </si>
+  <si>
+    <t>根据"羽毛球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
     <t>sr:sport:20</t>
   </si>
   <si>
@@ -1358,6 +1409,24 @@
     <t>根据"乒乓球"查询让球/大小/独赢/滚球-注单详情</t>
   </si>
   <si>
+    <t>sr:sport:3</t>
+  </si>
+  <si>
+    <t>棒球</t>
+  </si>
+  <si>
+    <t>根据"棒球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
+    <t>sr:sport:4</t>
+  </si>
+  <si>
+    <t>冰球</t>
+  </si>
+  <si>
+    <t>根据"冰球"查询让球/大小/独赢/滚球-注单详情</t>
+  </si>
+  <si>
     <t>默认所有查询混合串关</t>
   </si>
   <si>
@@ -1368,12 +1437,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>SELECT d.account '</t>
     </r>
     <r>
@@ -1726,6 +1789,24 @@
         <charset val="134"/>
       </rPr>
       <t>投注金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',company_actual_percentage*100 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司占成</t>
     </r>
     <r>
       <rPr>
@@ -2264,7 +2345,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2324,10 +2405,11 @@
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2353,14 +2435,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2810,21 +2884,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2834,31 +2911,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2867,16 +2941,16 @@
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2951,7 +3025,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3273,10 +3347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3327,40 +3401,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:1">
-      <c r="A14" s="11" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:1">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>8</v>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:1">
-      <c r="A18" s="11" t="s">
+    <row r="16" ht="14.25" spans="1:1">
+      <c r="A16" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>9</v>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:1">
-      <c r="A21" s="11" t="s">
+    <row r="19" ht="14.25" spans="1:1">
+      <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>10</v>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="mainBet!A1" display="/betManagement/agent/mainBet"/>
+    <hyperlink ref="B3" location="mainBetOrder_d!A1" display="/betManagement/agent/mainBet"/>
+    <hyperlink ref="B4" location="mixBet!A1" display="/betManagement/agent/mixBetOrder"/>
+    <hyperlink ref="B5" location="mixBetOrder_d!A1" display="/betManagement/agent/mixBetOrderInfo"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3371,8 +3456,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3392,49 +3477,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3444,34 +3529,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3506,49 +3591,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3558,34 +3643,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3597,39 +3682,144 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="44.375" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3643,8 +3833,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3664,49 +3854,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3716,34 +3906,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="9"/>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3778,49 +3968,49 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3830,40 +4020,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/总投注-测试用例.xlsx
+++ b/test_data/总投注-测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -667,12 +667,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>f"SELECT CONCAT(d.account,'/',d.login_account) as '</t>
     </r>
     <r>
@@ -880,7 +874,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>冰上曲棍球</t>
+      <t>冰球</t>
     </r>
     <r>
       <rPr>
@@ -1626,7 +1620,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>冰上曲棍球</t>
+      <t>冰球</t>
     </r>
     <r>
       <rPr>
@@ -3570,8 +3564,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3833,8 +3827,8 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3948,7 +3942,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="1"/>
